--- a/InputData/land/PLANAbPiaSY/Potential Land Area Newly Affected by Pol in a Single Yr.xlsx
+++ b/InputData/land/PLANAbPiaSY/Potential Land Area Newly Affected by Pol in a Single Yr.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emily.Mangan\Dropbox\India EPS\InputData UPDATE FOR INDIA\land\PLANAbPiaSY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\Input Data for India 2.0\land\PLANAbPiaSY\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B004867-E0E4-4FA0-99FD-B910DCAC8784}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="13665" windowHeight="5355"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -23,12 +24,20 @@
   <definedNames>
     <definedName name="acres_per_million_hectares">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="171027" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="116">
   <si>
     <t>PLANAbPiaSY Potential Land Area Newly Affected by Policy in a Single Year</t>
   </si>
@@ -36,9 +45,6 @@
     <t>Sources:</t>
   </si>
   <si>
-    <t>http://www.mospi.gov.in/statistical-year-book-india/2017/202</t>
-  </si>
-  <si>
     <t> Change in Forest Acreage</t>
   </si>
   <si>
@@ -84,9 +90,6 @@
     <t>Forest Cover Estimates</t>
   </si>
   <si>
-    <t>Tables 33.1</t>
-  </si>
-  <si>
     <t>Ministry of Statistics and Programme Implementation</t>
   </si>
   <si>
@@ -135,9 +138,6 @@
     <t>acreas</t>
   </si>
   <si>
-    <t>Average Annual Acres Cut per Year</t>
-  </si>
-  <si>
     <t>Global Forest Watch Estimates</t>
   </si>
   <si>
@@ -162,24 +162,9 @@
     <t>as wood is a renewable resource and may be better than fabricating</t>
   </si>
   <si>
-    <t>certain replacement materials.  Lacking good data on this,</t>
-  </si>
-  <si>
-    <t>we will assume that timber harvesting could be reduced from its</t>
-  </si>
-  <si>
-    <t>present scale by 2% of its current level per year.  The model run</t>
-  </si>
-  <si>
-    <t>period (2016-2050) is 35 years long, so if the policy were to</t>
-  </si>
-  <si>
     <t>be implemented in full strength throughout the entire model run,</t>
   </si>
   <si>
-    <t>there would be a total 70% reduction in timber harvesting per year</t>
-  </si>
-  <si>
     <t>by the end.</t>
   </si>
   <si>
@@ -207,9 +192,6 @@
     <t xml:space="preserve">forest, and does not need to be human caused. </t>
   </si>
   <si>
-    <t xml:space="preserve">As such, we assume that 75% of tree cover loss can be </t>
-  </si>
-  <si>
     <t>Average Annual Deforestation</t>
   </si>
   <si>
@@ -234,18 +216,9 @@
     <t>Note: The World Resources Institute estimates that India has an opportunity</t>
   </si>
   <si>
-    <t xml:space="preserve"> for 72 million hectares for both wide-scale and mosaic restoration. This number</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> represents the total number of technically feasible hectares available </t>
-  </si>
-  <si>
     <t>for restoration, not what is possible through 2050. Because of this,</t>
   </si>
   <si>
-    <t xml:space="preserve"> we refer to India's international commitments on reforestation and </t>
-  </si>
-  <si>
     <t xml:space="preserve">restoration as a proxy.  </t>
   </si>
   <si>
@@ -276,12 +249,6 @@
     <t>Average Annual Deforestation (acres)</t>
   </si>
   <si>
-    <t xml:space="preserve">attributed to human-caused deforestation, and thus can </t>
-  </si>
-  <si>
-    <t>be prevented.</t>
-  </si>
-  <si>
     <t>Increase forest/tree cover</t>
   </si>
   <si>
@@ -318,9 +285,6 @@
     <t>Joint Forest Management in India</t>
   </si>
   <si>
-    <t>ENVIRONMENT &amp; FOREST - Statistical Year Book India 2017</t>
-  </si>
-  <si>
     <t>Annually</t>
   </si>
   <si>
@@ -352,12 +316,84 @@
   </si>
   <si>
     <t xml:space="preserve">We use this number as our deforestation rate. </t>
+  </si>
+  <si>
+    <t>http://www.mospi.gov.in/statistical-year-book-india/2018/202</t>
+  </si>
+  <si>
+    <t>ENVIRONMENT &amp; FOREST - Statistical Year Book India 2018</t>
+  </si>
+  <si>
+    <t>Very Dense
+Forest</t>
+  </si>
+  <si>
+    <t>Moderately 
+Dense Forest</t>
+  </si>
+  <si>
+    <t>Open 
+Forest</t>
+  </si>
+  <si>
+    <t>Table 33.1</t>
+  </si>
+  <si>
+    <t>Sec 1.6, 'Planned Afforestation', Point 2, Page 16,17</t>
+  </si>
+  <si>
+    <t>there would be a total 70% reduction in timber harvesting/yr</t>
+  </si>
+  <si>
+    <t>certain replacement materials.</t>
+  </si>
+  <si>
+    <t>Average Annual Acres Change per Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The draft National Forest Policy of 2018 also emphasizes the need for </t>
+  </si>
+  <si>
+    <t>a sustainable agro-forestry and farm-forestry strategy for supply of</t>
+  </si>
+  <si>
+    <t>wood requirements in the country, and reduce dependence on alternatives</t>
+  </si>
+  <si>
+    <t>with a higher carbon footprint.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lacking good data on this, we assume that timber harvesting could be </t>
+  </si>
+  <si>
+    <t xml:space="preserve">reduced from its present scale by 2% of its current level per year. </t>
+  </si>
+  <si>
+    <t>The model run (2016-2050) is 35 years long, so if the policy were to</t>
+  </si>
+  <si>
+    <t>Assumptions are listed in respective sheets for each policy</t>
+  </si>
+  <si>
+    <t>Peatland restoration doesn't apply to India</t>
+  </si>
+  <si>
+    <t>for 72 million hectares for both wide-scale and mosaic restoration. This number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">represents the total number of technically feasible hectares available </t>
+  </si>
+  <si>
+    <t xml:space="preserve">we refer to India's international commitments on reforestation and </t>
+  </si>
+  <si>
+    <t>(http://www.indiaenvironmentportal.org.in/files/file/Draft%20National%20Forest%20Policy,%202018.pdf)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="26">
     <font>
       <sz val="11"/>
@@ -847,7 +883,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -882,54 +918,57 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="46">
-    <cellStyle name="20% - Accent1 2" xfId="3"/>
-    <cellStyle name="20% - Accent2 2" xfId="4"/>
-    <cellStyle name="20% - Accent3 2" xfId="5"/>
-    <cellStyle name="20% - Accent4 2" xfId="6"/>
-    <cellStyle name="20% - Accent5 2" xfId="7"/>
-    <cellStyle name="20% - Accent6 2" xfId="8"/>
-    <cellStyle name="40% - Accent1 2" xfId="9"/>
-    <cellStyle name="40% - Accent2 2" xfId="10"/>
-    <cellStyle name="40% - Accent3 2" xfId="11"/>
-    <cellStyle name="40% - Accent4 2" xfId="12"/>
-    <cellStyle name="40% - Accent5 2" xfId="13"/>
-    <cellStyle name="40% - Accent6 2" xfId="14"/>
-    <cellStyle name="60% - Accent1 2" xfId="15"/>
-    <cellStyle name="60% - Accent2 2" xfId="16"/>
-    <cellStyle name="60% - Accent3 2" xfId="17"/>
-    <cellStyle name="60% - Accent4 2" xfId="18"/>
-    <cellStyle name="60% - Accent5 2" xfId="19"/>
-    <cellStyle name="60% - Accent6 2" xfId="20"/>
-    <cellStyle name="Accent1 2" xfId="21"/>
-    <cellStyle name="Accent2 2" xfId="22"/>
-    <cellStyle name="Accent3 2" xfId="23"/>
-    <cellStyle name="Accent4 2" xfId="24"/>
-    <cellStyle name="Accent5 2" xfId="25"/>
-    <cellStyle name="Accent6 2" xfId="26"/>
-    <cellStyle name="Bad 2" xfId="27"/>
-    <cellStyle name="Calculation 2" xfId="28"/>
-    <cellStyle name="Check Cell 2" xfId="29"/>
-    <cellStyle name="Column headings" xfId="30"/>
-    <cellStyle name="Explanatory Text 2" xfId="31"/>
-    <cellStyle name="Good 2" xfId="32"/>
-    <cellStyle name="Heading 1 2" xfId="33"/>
-    <cellStyle name="Heading 2 2" xfId="34"/>
-    <cellStyle name="Heading 3 2" xfId="35"/>
-    <cellStyle name="Heading 4 2" xfId="36"/>
+    <cellStyle name="20% - Accent1 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - Accent2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - Accent3 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - Accent4 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - Accent5 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - Accent6 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - Accent1 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - Accent2 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - Accent3 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - Accent4 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - Accent5 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - Accent6 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="60% - Accent1 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - Accent2 2" xfId="16" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - Accent3 2" xfId="17" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - Accent4 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - Accent5 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - Accent6 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Accent1 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Accent2 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Accent3 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Accent4 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Accent5 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Accent6 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Bad 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Calculation 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Check Cell 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Column headings" xfId="30" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Explanatory Text 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Good 2" xfId="32" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Heading 1 2" xfId="33" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Heading 2 2" xfId="34" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Heading 3 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Heading 4 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Input 2" xfId="37"/>
-    <cellStyle name="Linked Cell 2" xfId="38"/>
-    <cellStyle name="Neutral 2" xfId="39"/>
+    <cellStyle name="Input 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Linked Cell 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Neutral 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal_Table-6.1" xfId="40"/>
-    <cellStyle name="Note 2" xfId="41"/>
-    <cellStyle name="Output 2" xfId="42"/>
-    <cellStyle name="Title 2" xfId="43"/>
-    <cellStyle name="Total 2" xfId="44"/>
-    <cellStyle name="Warning Text 2" xfId="45"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Normal_Table-6.1" xfId="40" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Note 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Output 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Title 2" xfId="43" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Total 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Warning Text 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1264,11 +1303,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1286,42 +1325,42 @@
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" s="5">
-        <v>2017</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" s="8" t="s">
-        <v>2</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1331,17 +1370,17 @@
     </row>
     <row r="13" spans="1:2">
       <c r="B13" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1349,12 +1388,12 @@
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="2:2">
@@ -1364,27 +1403,27 @@
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="6" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="4" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="2:2">
@@ -1394,93 +1433,99 @@
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" t="s">
-        <v>75</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="5">
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="5">
         <v>2015</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="B33" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="B35" s="4" t="s">
-        <v>102</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="B34" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="B36" t="s">
-        <v>103</v>
+      <c r="B36" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="B37" s="5">
+      <c r="B37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="B38" s="5">
         <v>2003</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="B38" t="s">
-        <v>104</v>
-      </c>
-    </row>
     <row r="39" spans="1:2">
-      <c r="B39" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="1" t="s">
-        <v>6</v>
+      <c r="B39" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="B40" s="6" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="B43" t="s">
-        <v>106</v>
+      <c r="A43" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="B44" t="s">
-        <v>107</v>
+      <c r="A44" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1"/>
-    <hyperlink ref="B7" r:id="rId2"/>
-    <hyperlink ref="B21" r:id="rId3"/>
-    <hyperlink ref="B28" r:id="rId4"/>
-    <hyperlink ref="B39" r:id="rId5" location="fn1"/>
+    <hyperlink ref="B14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B21" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B28" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B40" r:id="rId4" location="fn1" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{53754598-A1A0-4CDD-B030-AEC1CF5B00D6}"/>
+    <hyperlink ref="B34" r:id="rId6" xr:uid="{A58ABE00-1173-411F-A49C-057AD0689D75}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1491,11 +1536,13 @@
     <col min="4" max="4" width="20.140625" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="23"/>
@@ -1504,16 +1551,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1532,11 +1579,11 @@
         <v>638804</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C16" si="0">B4-B3</f>
+        <f>B4-B3</f>
         <v>-2015</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D16" si="1">C4*247.105</f>
+        <f t="shared" ref="D4:D16" si="0">C4*247.105</f>
         <v>-497916.57499999995</v>
       </c>
     </row>
@@ -1548,11 +1595,11 @@
         <v>639364</v>
       </c>
       <c r="C5">
+        <f t="shared" ref="C5:C16" si="1">B5-B4</f>
+        <v>560</v>
+      </c>
+      <c r="D5">
         <f t="shared" si="0"/>
-        <v>560</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="1"/>
         <v>138378.79999999999</v>
       </c>
     </row>
@@ -1564,11 +1611,11 @@
         <v>639386</v>
       </c>
       <c r="C6">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="D6">
         <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="1"/>
         <v>5436.3099999999995</v>
       </c>
     </row>
@@ -1580,11 +1627,11 @@
         <v>638879</v>
       </c>
       <c r="C7">
+        <f t="shared" si="1"/>
+        <v>-507</v>
+      </c>
+      <c r="D7">
         <f t="shared" si="0"/>
-        <v>-507</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="1"/>
         <v>-125282.235</v>
       </c>
     </row>
@@ -1596,11 +1643,11 @@
         <v>633397</v>
       </c>
       <c r="C8">
+        <f t="shared" si="1"/>
+        <v>-5482</v>
+      </c>
+      <c r="D8">
         <f t="shared" si="0"/>
-        <v>-5482</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="1"/>
         <v>-1354629.6099999999</v>
       </c>
     </row>
@@ -1612,11 +1659,11 @@
         <v>637293</v>
       </c>
       <c r="C9">
+        <f t="shared" si="1"/>
+        <v>3896</v>
+      </c>
+      <c r="D9">
         <f t="shared" si="0"/>
-        <v>3896</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="1"/>
         <v>962721.08</v>
       </c>
     </row>
@@ -1628,11 +1675,11 @@
         <v>653898</v>
       </c>
       <c r="C10">
+        <f t="shared" si="1"/>
+        <v>16605</v>
+      </c>
+      <c r="D10">
         <f t="shared" si="0"/>
-        <v>16605</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="1"/>
         <v>4103178.5249999999</v>
       </c>
     </row>
@@ -1644,11 +1691,11 @@
         <v>677816</v>
       </c>
       <c r="C11">
+        <f t="shared" si="1"/>
+        <v>23918</v>
+      </c>
+      <c r="D11">
         <f t="shared" si="0"/>
-        <v>23918</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="1"/>
         <v>5910257.3899999997</v>
       </c>
     </row>
@@ -1660,11 +1707,11 @@
         <v>690171</v>
       </c>
       <c r="C12">
+        <f t="shared" si="1"/>
+        <v>12355</v>
+      </c>
+      <c r="D12">
         <f t="shared" si="0"/>
-        <v>12355</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="1"/>
         <v>3052982.2749999999</v>
       </c>
     </row>
@@ -1676,11 +1723,11 @@
         <v>692394</v>
       </c>
       <c r="C13">
+        <f t="shared" si="1"/>
+        <v>2223</v>
+      </c>
+      <c r="D13">
         <f t="shared" si="0"/>
-        <v>2223</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="1"/>
         <v>549314.41499999992</v>
       </c>
     </row>
@@ -1692,11 +1739,11 @@
         <v>690899</v>
       </c>
       <c r="C14">
+        <f t="shared" si="1"/>
+        <v>-1495</v>
+      </c>
+      <c r="D14">
         <f t="shared" si="0"/>
-        <v>-1495</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="1"/>
         <v>-369421.97499999998</v>
       </c>
     </row>
@@ -1708,11 +1755,11 @@
         <v>697898</v>
       </c>
       <c r="C15">
+        <f t="shared" si="1"/>
+        <v>6999</v>
+      </c>
+      <c r="D15">
         <f t="shared" si="0"/>
-        <v>6999</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="1"/>
         <v>1729487.895</v>
       </c>
     </row>
@@ -1724,17 +1771,17 @@
         <v>701673</v>
       </c>
       <c r="C16">
+        <f t="shared" si="1"/>
+        <v>3775</v>
+      </c>
+      <c r="D16">
         <f t="shared" si="0"/>
-        <v>3775</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="1"/>
         <v>932821.375</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1742,27 +1789,36 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:9" ht="30">
       <c r="A19" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="F19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="13">
         <v>2001</v>
       </c>
@@ -1781,8 +1837,17 @@
       <c r="F20">
         <v>2586047</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20">
+        <v>395169</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>258729</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="13">
         <v>2003</v>
       </c>
@@ -1801,8 +1866,17 @@
       <c r="F21">
         <v>2569178</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21">
+        <v>54518</v>
+      </c>
+      <c r="H21">
+        <v>334056</v>
+      </c>
+      <c r="I21">
+        <v>289242</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="13">
         <v>2005</v>
       </c>
@@ -1821,8 +1895,17 @@
       <c r="F22">
         <v>2558617</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>83472</v>
+      </c>
+      <c r="H22">
+        <v>319948</v>
+      </c>
+      <c r="I22">
+        <v>286751</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="13">
         <v>2009</v>
       </c>
@@ -1841,8 +1924,17 @@
       <c r="F23">
         <v>2553344</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>83428</v>
+      </c>
+      <c r="H23">
+        <v>320238</v>
+      </c>
+      <c r="I23">
+        <v>288728</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="13">
         <v>2011</v>
       </c>
@@ -1861,8 +1953,17 @@
       <c r="F24">
         <v>2553060</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24">
+        <v>83471</v>
+      </c>
+      <c r="H24">
+        <v>320736</v>
+      </c>
+      <c r="I24">
+        <v>287820</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="13">
         <v>2013</v>
       </c>
@@ -1881,8 +1982,17 @@
       <c r="F25">
         <v>2547982</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25">
+        <v>83502</v>
+      </c>
+      <c r="H25">
+        <v>318745</v>
+      </c>
+      <c r="I25">
+        <v>295651</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="13">
         <v>2015</v>
       </c>
@@ -1901,10 +2011,19 @@
       <c r="F26">
         <v>2544228</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G26">
+        <v>85904</v>
+      </c>
+      <c r="H26">
+        <v>315374</v>
+      </c>
+      <c r="I26">
+        <v>300395</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1912,24 +2031,24 @@
       <c r="E28" s="4"/>
       <c r="F28" s="15"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:9">
       <c r="A29" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B29" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" t="s">
         <v>26</v>
       </c>
-      <c r="C29" t="s">
+      <c r="E29" t="s">
         <v>27</v>
       </c>
-      <c r="D29" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="13">
         <v>2001</v>
       </c>
@@ -1946,7 +2065,7 @@
         <v>127811</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:9">
       <c r="A31" s="13">
         <v>2003</v>
       </c>
@@ -1963,7 +2082,7 @@
         <v>136387</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:9">
       <c r="A32" s="13">
         <v>2005</v>
       </c>
@@ -2054,11 +2173,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2070,7 +2189,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -2082,11 +2201,11 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2094,10 +2213,10 @@
         <v>21000000</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2105,7 +2224,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2114,7 +2233,7 @@
         <v>1400000</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2123,18 +2242,18 @@
         <v>3459470</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D9" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2142,13 +2261,13 @@
         <v>5000000</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="D10" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2156,13 +2275,13 @@
         <v>5000000</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2170,10 +2289,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2182,10 +2301,10 @@
         <v>555555.5555555555</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2194,10 +2313,10 @@
         <v>555555.5555555555</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2206,7 +2325,7 @@
         <v>1372805.5555555555</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -2214,37 +2333,37 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2253,21 +2372,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="23" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -2278,87 +2398,109 @@
         <v>1156717.5130769229</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="19"/>
+      <c r="A4" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>39</v>
+      <c r="A6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>48</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="20">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="20">
         <v>0.02</v>
       </c>
-      <c r="B19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="19">
-        <f>A2*A19</f>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="19">
+        <f>A2*A23</f>
         <v>23134.350261538457</v>
       </c>
-      <c r="B21" t="s">
-        <v>52</v>
+      <c r="B25" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2367,11 +2509,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2384,7 +2526,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -2392,18 +2534,18 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2414,7 +2556,7 @@
         <v>62.3</v>
       </c>
       <c r="C4" s="22">
-        <f t="shared" ref="C4:C19" si="0">B4/0.00040468564224</f>
+        <f t="shared" ref="C4:C21" si="0">B4/0.00040468564224</f>
         <v>153946.65265404401</v>
       </c>
     </row>
@@ -2599,50 +2741,66 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="C20" s="22"/>
+      <c r="A20" s="18">
+        <v>2017</v>
+      </c>
+      <c r="B20" s="18">
+        <v>189</v>
+      </c>
+      <c r="C20" s="22">
+        <f t="shared" si="0"/>
+        <v>467029.17097294249</v>
+      </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="15" t="s">
-        <v>55</v>
+      <c r="A21" s="18">
+        <v>2018</v>
+      </c>
+      <c r="B21" s="18">
+        <v>132</v>
       </c>
       <c r="C21" s="22">
-        <f>AVERAGE(C4:C19)</f>
-        <v>208695.93873536281</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="18" t="s">
-        <v>56</v>
+        <f t="shared" si="0"/>
+        <v>326179.10353665822</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="22">
+        <f>AVERAGE(C4:C21)</f>
+        <v>229574.62745974478</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="18" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="18" t="s">
-        <v>59</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="18" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="18" t="s">
-        <v>82</v>
+      <c r="A28" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="18" t="s">
-        <v>83</v>
+      <c r="A29" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="4" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -2650,16 +2808,16 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="14" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C32" s="22">
-        <f>AVERAGE(C15:C30)</f>
-        <v>284276.72327724175</v>
+        <f>C22</f>
+        <v>229574.62745974478</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="17" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B33" s="17"/>
       <c r="C33" s="17">
@@ -2668,11 +2826,11 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="18" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C34" s="22">
         <f>C32*C33</f>
-        <v>255849.05094951758</v>
+        <v>206617.1647137703</v>
       </c>
     </row>
   </sheetData>
@@ -2681,7 +2839,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2695,7 +2853,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -2703,7 +2861,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="14" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -2714,10 +2872,10 @@
         <v>3896</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2726,10 +2884,10 @@
         <v>87520.098181818175</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2739,14 +2897,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AJ7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2864,152 +3022,152 @@
     </row>
     <row r="2" spans="1:36">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="19">
-        <f>SetAsides!$A21</f>
+        <f>SetAsides!$A25</f>
         <v>23134.350261538457</v>
       </c>
       <c r="C2" s="19">
-        <f>SetAsides!$A21</f>
+        <f>SetAsides!$A25</f>
         <v>23134.350261538457</v>
       </c>
       <c r="D2" s="19">
-        <f>SetAsides!$A21</f>
+        <f>SetAsides!$A25</f>
         <v>23134.350261538457</v>
       </c>
       <c r="E2" s="19">
-        <f>SetAsides!$A21</f>
+        <f>SetAsides!$A25</f>
         <v>23134.350261538457</v>
       </c>
       <c r="F2" s="19">
-        <f>SetAsides!$A21</f>
+        <f>SetAsides!$A25</f>
         <v>23134.350261538457</v>
       </c>
       <c r="G2" s="19">
-        <f>SetAsides!$A21</f>
+        <f>SetAsides!$A25</f>
         <v>23134.350261538457</v>
       </c>
       <c r="H2" s="19">
-        <f>SetAsides!$A21</f>
+        <f>SetAsides!$A25</f>
         <v>23134.350261538457</v>
       </c>
       <c r="I2" s="19">
-        <f>SetAsides!$A21</f>
+        <f>SetAsides!$A25</f>
         <v>23134.350261538457</v>
       </c>
       <c r="J2" s="19">
-        <f>SetAsides!$A21</f>
+        <f>SetAsides!$A25</f>
         <v>23134.350261538457</v>
       </c>
       <c r="K2" s="19">
-        <f>SetAsides!$A21</f>
+        <f>SetAsides!$A25</f>
         <v>23134.350261538457</v>
       </c>
       <c r="L2" s="19">
-        <f>SetAsides!$A21</f>
+        <f>SetAsides!$A25</f>
         <v>23134.350261538457</v>
       </c>
       <c r="M2" s="19">
-        <f>SetAsides!$A21</f>
+        <f>SetAsides!$A25</f>
         <v>23134.350261538457</v>
       </c>
       <c r="N2" s="19">
-        <f>SetAsides!$A21</f>
+        <f>SetAsides!$A25</f>
         <v>23134.350261538457</v>
       </c>
       <c r="O2" s="19">
-        <f>SetAsides!$A21</f>
+        <f>SetAsides!$A25</f>
         <v>23134.350261538457</v>
       </c>
       <c r="P2" s="19">
-        <f>SetAsides!$A21</f>
+        <f>SetAsides!$A25</f>
         <v>23134.350261538457</v>
       </c>
       <c r="Q2" s="19">
-        <f>SetAsides!$A21</f>
+        <f>SetAsides!$A25</f>
         <v>23134.350261538457</v>
       </c>
       <c r="R2" s="19">
-        <f>SetAsides!$A21</f>
+        <f>SetAsides!$A25</f>
         <v>23134.350261538457</v>
       </c>
       <c r="S2" s="19">
-        <f>SetAsides!$A21</f>
+        <f>SetAsides!$A25</f>
         <v>23134.350261538457</v>
       </c>
       <c r="T2" s="19">
-        <f>SetAsides!$A21</f>
+        <f>SetAsides!$A25</f>
         <v>23134.350261538457</v>
       </c>
       <c r="U2" s="19">
-        <f>SetAsides!$A21</f>
+        <f>SetAsides!$A25</f>
         <v>23134.350261538457</v>
       </c>
       <c r="V2" s="19">
-        <f>SetAsides!$A21</f>
+        <f>SetAsides!$A25</f>
         <v>23134.350261538457</v>
       </c>
       <c r="W2" s="19">
-        <f>SetAsides!$A21</f>
+        <f>SetAsides!$A25</f>
         <v>23134.350261538457</v>
       </c>
       <c r="X2" s="19">
-        <f>SetAsides!$A21</f>
+        <f>SetAsides!$A25</f>
         <v>23134.350261538457</v>
       </c>
       <c r="Y2" s="19">
-        <f>SetAsides!$A21</f>
+        <f>SetAsides!$A25</f>
         <v>23134.350261538457</v>
       </c>
       <c r="Z2" s="19">
-        <f>SetAsides!$A21</f>
+        <f>SetAsides!$A25</f>
         <v>23134.350261538457</v>
       </c>
       <c r="AA2" s="19">
-        <f>SetAsides!$A21</f>
+        <f>SetAsides!$A25</f>
         <v>23134.350261538457</v>
       </c>
       <c r="AB2" s="19">
-        <f>SetAsides!$A21</f>
+        <f>SetAsides!$A25</f>
         <v>23134.350261538457</v>
       </c>
       <c r="AC2" s="19">
-        <f>SetAsides!$A21</f>
+        <f>SetAsides!$A25</f>
         <v>23134.350261538457</v>
       </c>
       <c r="AD2" s="19">
-        <f>SetAsides!$A21</f>
+        <f>SetAsides!$A25</f>
         <v>23134.350261538457</v>
       </c>
       <c r="AE2" s="19">
-        <f>SetAsides!$A21</f>
+        <f>SetAsides!$A25</f>
         <v>23134.350261538457</v>
       </c>
       <c r="AF2" s="19">
-        <f>SetAsides!$A21</f>
+        <f>SetAsides!$A25</f>
         <v>23134.350261538457</v>
       </c>
       <c r="AG2" s="19">
-        <f>SetAsides!$A21</f>
+        <f>SetAsides!$A25</f>
         <v>23134.350261538457</v>
       </c>
       <c r="AH2" s="19">
-        <f>SetAsides!$A21</f>
+        <f>SetAsides!$A25</f>
         <v>23134.350261538457</v>
       </c>
       <c r="AI2" s="19">
-        <f>SetAsides!$A21</f>
+        <f>SetAsides!$A25</f>
         <v>23134.350261538457</v>
       </c>
       <c r="AJ2" s="19">
-        <f>SetAsides!$A21</f>
+        <f>SetAsides!$A25</f>
         <v>23134.350261538457</v>
       </c>
     </row>
     <row r="3" spans="1:36">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3">
         <f>Afforestation!$A16</f>
@@ -3154,7 +3312,7 @@
     </row>
     <row r="4" spans="1:36">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3">
         <f>ImprovedForestMgmt!$A4</f>
@@ -3298,152 +3456,152 @@
     </row>
     <row r="5" spans="1:36">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="3">
         <f>Deforestation!C34</f>
-        <v>255849.05094951758</v>
+        <v>206617.1647137703</v>
       </c>
       <c r="C5" s="3">
         <f>Deforestation!$C34</f>
-        <v>255849.05094951758</v>
+        <v>206617.1647137703</v>
       </c>
       <c r="D5" s="3">
         <f>Deforestation!$C34</f>
-        <v>255849.05094951758</v>
+        <v>206617.1647137703</v>
       </c>
       <c r="E5" s="3">
         <f>Deforestation!$C34</f>
-        <v>255849.05094951758</v>
+        <v>206617.1647137703</v>
       </c>
       <c r="F5" s="3">
         <f>Deforestation!$C34</f>
-        <v>255849.05094951758</v>
+        <v>206617.1647137703</v>
       </c>
       <c r="G5" s="3">
         <f>Deforestation!$C34</f>
-        <v>255849.05094951758</v>
+        <v>206617.1647137703</v>
       </c>
       <c r="H5" s="3">
         <f>Deforestation!$C34</f>
-        <v>255849.05094951758</v>
+        <v>206617.1647137703</v>
       </c>
       <c r="I5" s="3">
         <f>Deforestation!$C34</f>
-        <v>255849.05094951758</v>
+        <v>206617.1647137703</v>
       </c>
       <c r="J5" s="3">
         <f>Deforestation!$C34</f>
-        <v>255849.05094951758</v>
+        <v>206617.1647137703</v>
       </c>
       <c r="K5" s="3">
         <f>Deforestation!$C34</f>
-        <v>255849.05094951758</v>
+        <v>206617.1647137703</v>
       </c>
       <c r="L5" s="3">
         <f>Deforestation!$C34</f>
-        <v>255849.05094951758</v>
+        <v>206617.1647137703</v>
       </c>
       <c r="M5" s="3">
         <f>Deforestation!$C34</f>
-        <v>255849.05094951758</v>
+        <v>206617.1647137703</v>
       </c>
       <c r="N5" s="3">
         <f>Deforestation!$C34</f>
-        <v>255849.05094951758</v>
+        <v>206617.1647137703</v>
       </c>
       <c r="O5" s="3">
         <f>Deforestation!$C34</f>
-        <v>255849.05094951758</v>
+        <v>206617.1647137703</v>
       </c>
       <c r="P5" s="3">
         <f>Deforestation!$C34</f>
-        <v>255849.05094951758</v>
+        <v>206617.1647137703</v>
       </c>
       <c r="Q5" s="3">
         <f>Deforestation!$C34</f>
-        <v>255849.05094951758</v>
+        <v>206617.1647137703</v>
       </c>
       <c r="R5" s="3">
         <f>Deforestation!$C34</f>
-        <v>255849.05094951758</v>
+        <v>206617.1647137703</v>
       </c>
       <c r="S5" s="3">
         <f>Deforestation!$C34</f>
-        <v>255849.05094951758</v>
+        <v>206617.1647137703</v>
       </c>
       <c r="T5" s="3">
         <f>Deforestation!$C34</f>
-        <v>255849.05094951758</v>
+        <v>206617.1647137703</v>
       </c>
       <c r="U5" s="3">
         <f>Deforestation!$C34</f>
-        <v>255849.05094951758</v>
+        <v>206617.1647137703</v>
       </c>
       <c r="V5" s="3">
         <f>Deforestation!$C34</f>
-        <v>255849.05094951758</v>
+        <v>206617.1647137703</v>
       </c>
       <c r="W5" s="3">
         <f>Deforestation!$C34</f>
-        <v>255849.05094951758</v>
+        <v>206617.1647137703</v>
       </c>
       <c r="X5" s="3">
         <f>Deforestation!$C34</f>
-        <v>255849.05094951758</v>
+        <v>206617.1647137703</v>
       </c>
       <c r="Y5" s="3">
         <f>Deforestation!$C34</f>
-        <v>255849.05094951758</v>
+        <v>206617.1647137703</v>
       </c>
       <c r="Z5" s="3">
         <f>Deforestation!$C34</f>
-        <v>255849.05094951758</v>
+        <v>206617.1647137703</v>
       </c>
       <c r="AA5" s="3">
         <f>Deforestation!$C34</f>
-        <v>255849.05094951758</v>
+        <v>206617.1647137703</v>
       </c>
       <c r="AB5" s="3">
         <f>Deforestation!$C34</f>
-        <v>255849.05094951758</v>
+        <v>206617.1647137703</v>
       </c>
       <c r="AC5" s="3">
         <f>Deforestation!$C34</f>
-        <v>255849.05094951758</v>
+        <v>206617.1647137703</v>
       </c>
       <c r="AD5" s="3">
         <f>Deforestation!$C34</f>
-        <v>255849.05094951758</v>
+        <v>206617.1647137703</v>
       </c>
       <c r="AE5" s="3">
         <f>Deforestation!$C34</f>
-        <v>255849.05094951758</v>
+        <v>206617.1647137703</v>
       </c>
       <c r="AF5" s="3">
         <f>Deforestation!$C34</f>
-        <v>255849.05094951758</v>
+        <v>206617.1647137703</v>
       </c>
       <c r="AG5" s="3">
         <f>Deforestation!$C34</f>
-        <v>255849.05094951758</v>
+        <v>206617.1647137703</v>
       </c>
       <c r="AH5" s="3">
         <f>Deforestation!$C34</f>
-        <v>255849.05094951758</v>
+        <v>206617.1647137703</v>
       </c>
       <c r="AI5" s="3">
         <f>Deforestation!$C34</f>
-        <v>255849.05094951758</v>
+        <v>206617.1647137703</v>
       </c>
       <c r="AJ5" s="3">
         <f>Deforestation!$C34</f>
-        <v>255849.05094951758</v>
+        <v>206617.1647137703</v>
       </c>
     </row>
     <row r="6" spans="1:36">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3553,7 +3711,7 @@
     </row>
     <row r="7" spans="1:36">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <f>Afforestation!$A7</f>

--- a/InputData/land/PLANAbPiaSY/Potential Land Area Newly Affected by Pol in a Single Yr.xlsx
+++ b/InputData/land/PLANAbPiaSY/Potential Land Area Newly Affected by Pol in a Single Yr.xlsx
@@ -1,30 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\Input Data for India 2.0\land\PLANAbPiaSY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-india\InputData\land\PLANAbPiaSY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B004867-E0E4-4FA0-99FD-B910DCAC8784}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="ForestCover" sheetId="8" r:id="rId2"/>
     <sheet name="Afforestation" sheetId="4" r:id="rId3"/>
-    <sheet name="SetAsides" sheetId="7" r:id="rId4"/>
-    <sheet name="Deforestation" sheetId="11" r:id="rId5"/>
-    <sheet name="ImprovedForestMgmt" sheetId="10" r:id="rId6"/>
-    <sheet name="PLANAbPiaSY" sheetId="3" r:id="rId7"/>
+    <sheet name="Deforestation" sheetId="11" r:id="rId4"/>
+    <sheet name="ImprovedForestMgmt" sheetId="10" r:id="rId5"/>
+    <sheet name="PLANAbPiaSY" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="acres_per_million_hectares">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="95">
   <si>
     <t>PLANAbPiaSY Potential Land Area Newly Affected by Policy in a Single Year</t>
   </si>
@@ -135,9 +133,6 @@
     <t>Forest Change (acres)</t>
   </si>
   <si>
-    <t>acreas</t>
-  </si>
-  <si>
     <t>Global Forest Watch Estimates</t>
   </si>
   <si>
@@ -145,33 +140,6 @@
   </si>
   <si>
     <t>Tree Cover Loss (acres)</t>
-  </si>
-  <si>
-    <t>How many of these acres are available annually for set-asides?</t>
-  </si>
-  <si>
-    <t>This depends on the speed with which timber harvesting could be scaled</t>
-  </si>
-  <si>
-    <t>down, given the need to find replacement materials for forest products.</t>
-  </si>
-  <si>
-    <t>It also is likely not desirable to completely cease timber harvesting,</t>
-  </si>
-  <si>
-    <t>as wood is a renewable resource and may be better than fabricating</t>
-  </si>
-  <si>
-    <t>be implemented in full strength throughout the entire model run,</t>
-  </si>
-  <si>
-    <t>by the end.</t>
-  </si>
-  <si>
-    <t>potential reduction in timber harvesting achievable per year</t>
-  </si>
-  <si>
-    <t>acres potentially available for forest set-asides per year</t>
   </si>
   <si>
     <t>(ha)</t>
@@ -342,36 +310,6 @@
     <t>Sec 1.6, 'Planned Afforestation', Point 2, Page 16,17</t>
   </si>
   <si>
-    <t>there would be a total 70% reduction in timber harvesting/yr</t>
-  </si>
-  <si>
-    <t>certain replacement materials.</t>
-  </si>
-  <si>
-    <t>Average Annual Acres Change per Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The draft National Forest Policy of 2018 also emphasizes the need for </t>
-  </si>
-  <si>
-    <t>a sustainable agro-forestry and farm-forestry strategy for supply of</t>
-  </si>
-  <si>
-    <t>wood requirements in the country, and reduce dependence on alternatives</t>
-  </si>
-  <si>
-    <t>with a higher carbon footprint.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lacking good data on this, we assume that timber harvesting could be </t>
-  </si>
-  <si>
-    <t xml:space="preserve">reduced from its present scale by 2% of its current level per year. </t>
-  </si>
-  <si>
-    <t>The model run (2016-2050) is 35 years long, so if the policy were to</t>
-  </si>
-  <si>
     <t>Assumptions are listed in respective sheets for each policy</t>
   </si>
   <si>
@@ -385,15 +323,12 @@
   </si>
   <si>
     <t xml:space="preserve">we refer to India's international commitments on reforestation and </t>
-  </si>
-  <si>
-    <t>(http://www.indiaenvironmentportal.org.in/files/file/Draft%20National%20Forest%20Policy,%202018.pdf)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="26">
     <font>
       <sz val="11"/>
@@ -566,7 +501,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="28">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -698,12 +633,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -883,7 +812,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -914,7 +843,6 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -923,52 +851,52 @@
     </xf>
   </cellXfs>
   <cellStyles count="46">
-    <cellStyle name="20% - Accent1 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="20% - Accent2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="20% - Accent3 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="20% - Accent4 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="20% - Accent5 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="20% - Accent6 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="40% - Accent1 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="40% - Accent2 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="40% - Accent3 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="40% - Accent4 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="40% - Accent5 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="40% - Accent6 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="60% - Accent1 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="60% - Accent2 2" xfId="16" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="60% - Accent3 2" xfId="17" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="60% - Accent4 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="60% - Accent5 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="60% - Accent6 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="Accent1 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="Accent2 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="Accent3 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="Accent4 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="Accent5 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="Accent6 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="Bad 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="Calculation 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="Check Cell 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="Column headings" xfId="30" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="Explanatory Text 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="Good 2" xfId="32" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="Heading 1 2" xfId="33" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="Heading 2 2" xfId="34" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="Heading 3 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="Heading 4 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="20% - Accent1 2" xfId="3"/>
+    <cellStyle name="20% - Accent2 2" xfId="4"/>
+    <cellStyle name="20% - Accent3 2" xfId="5"/>
+    <cellStyle name="20% - Accent4 2" xfId="6"/>
+    <cellStyle name="20% - Accent5 2" xfId="7"/>
+    <cellStyle name="20% - Accent6 2" xfId="8"/>
+    <cellStyle name="40% - Accent1 2" xfId="9"/>
+    <cellStyle name="40% - Accent2 2" xfId="10"/>
+    <cellStyle name="40% - Accent3 2" xfId="11"/>
+    <cellStyle name="40% - Accent4 2" xfId="12"/>
+    <cellStyle name="40% - Accent5 2" xfId="13"/>
+    <cellStyle name="40% - Accent6 2" xfId="14"/>
+    <cellStyle name="60% - Accent1 2" xfId="15"/>
+    <cellStyle name="60% - Accent2 2" xfId="16"/>
+    <cellStyle name="60% - Accent3 2" xfId="17"/>
+    <cellStyle name="60% - Accent4 2" xfId="18"/>
+    <cellStyle name="60% - Accent5 2" xfId="19"/>
+    <cellStyle name="60% - Accent6 2" xfId="20"/>
+    <cellStyle name="Accent1 2" xfId="21"/>
+    <cellStyle name="Accent2 2" xfId="22"/>
+    <cellStyle name="Accent3 2" xfId="23"/>
+    <cellStyle name="Accent4 2" xfId="24"/>
+    <cellStyle name="Accent5 2" xfId="25"/>
+    <cellStyle name="Accent6 2" xfId="26"/>
+    <cellStyle name="Bad 2" xfId="27"/>
+    <cellStyle name="Calculation 2" xfId="28"/>
+    <cellStyle name="Check Cell 2" xfId="29"/>
+    <cellStyle name="Column headings" xfId="30"/>
+    <cellStyle name="Explanatory Text 2" xfId="31"/>
+    <cellStyle name="Good 2" xfId="32"/>
+    <cellStyle name="Heading 1 2" xfId="33"/>
+    <cellStyle name="Heading 2 2" xfId="34"/>
+    <cellStyle name="Heading 3 2" xfId="35"/>
+    <cellStyle name="Heading 4 2" xfId="36"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Input 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="Linked Cell 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="Neutral 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Input 2" xfId="37"/>
+    <cellStyle name="Linked Cell 2" xfId="38"/>
+    <cellStyle name="Neutral 2" xfId="39"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="Normal_Table-6.1" xfId="40" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="Note 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="Output 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="Title 2" xfId="43" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="Total 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="Warning Text 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal_Table-6.1" xfId="40"/>
+    <cellStyle name="Note 2" xfId="41"/>
+    <cellStyle name="Output 2" xfId="42"/>
+    <cellStyle name="Title 2" xfId="43"/>
+    <cellStyle name="Total 2" xfId="44"/>
+    <cellStyle name="Warning Text 2" xfId="45"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1059,23 +987,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1111,23 +1022,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1303,14 +1197,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="99" customWidth="1"/>
   </cols>
@@ -1340,17 +1234,17 @@
     </row>
     <row r="6" spans="1:2">
       <c r="B6" s="5" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" s="8" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1360,7 +1254,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1370,7 +1264,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="B13" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1388,12 +1282,12 @@
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="4" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="2:2">
@@ -1403,27 +1297,27 @@
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="6" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="4" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="2:2">
@@ -1433,22 +1327,22 @@
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="6" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="2:2">
@@ -1458,22 +1352,22 @@
     </row>
     <row r="33" spans="1:2">
       <c r="B33" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="B34" s="6" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="B36" s="4" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="B37" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1483,12 +1377,12 @@
     </row>
     <row r="39" spans="1:2">
       <c r="B39" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="B40" s="6" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1498,22 +1392,22 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B21" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B28" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B40" r:id="rId4" location="fn1" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B7" r:id="rId5" xr:uid="{53754598-A1A0-4CDD-B030-AEC1CF5B00D6}"/>
-    <hyperlink ref="B34" r:id="rId6" xr:uid="{A58ABE00-1173-411F-A49C-057AD0689D75}"/>
+    <hyperlink ref="B14" r:id="rId1"/>
+    <hyperlink ref="B21" r:id="rId2"/>
+    <hyperlink ref="B28" r:id="rId3"/>
+    <hyperlink ref="B40" r:id="rId4" location="fn1"/>
+    <hyperlink ref="B7" r:id="rId5"/>
+    <hyperlink ref="B34" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>
@@ -1521,23 +1415,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D4" sqref="D4:D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.86328125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="21.3984375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="23.1328125" customWidth="1"/>
+    <col min="4" max="4" width="20.1328125" customWidth="1"/>
+    <col min="5" max="5" width="17.265625" customWidth="1"/>
+    <col min="6" max="6" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1328125" customWidth="1"/>
+    <col min="8" max="8" width="14.265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1545,8 +1439,8 @@
         <v>15</v>
       </c>
       <c r="B1" s="4"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5">
@@ -1789,7 +1683,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:9" ht="30">
+    <row r="19" spans="1:9" ht="28.5">
       <c r="A19" s="13" t="s">
         <v>18</v>
       </c>
@@ -1808,14 +1702,14 @@
       <c r="F19" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="H19" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="I19" s="24" t="s">
-        <v>97</v>
+      <c r="G19" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -2173,58 +2067,58 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.59765625" customWidth="1"/>
+    <col min="3" max="3" width="19.265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="21">
+      <c r="A3" s="20">
         <v>21000000</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="21"/>
+      <c r="A4" s="20"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2233,7 +2127,7 @@
         <v>1400000</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2242,57 +2136,57 @@
         <v>3459470</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="21">
+      <c r="A10" s="20">
         <v>5000000</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="21">
+      <c r="A11" s="20">
         <v>5000000</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="21"/>
+      <c r="A12" s="20"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2301,10 +2195,10 @@
         <v>555555.5555555555</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2313,7 +2207,7 @@
         <v>555555.5555555555</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
@@ -2325,7 +2219,7 @@
         <v>1372805.5555555555</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -2333,37 +2227,37 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2372,135 +2266,328 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.1328125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="19.73046875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="13.1328125" style="18" customWidth="1"/>
+    <col min="4" max="7" width="9.1328125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="19">
-        <f>AVERAGE(ForestCover!D4:D16)</f>
-        <v>1156717.5130769229</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="18">
+        <v>2001</v>
+      </c>
+      <c r="B4" s="18">
+        <v>62.3</v>
+      </c>
+      <c r="C4" s="21">
+        <f t="shared" ref="C4:C21" si="0">B4/0.00040468564224</f>
+        <v>153946.65265404401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="18">
+        <v>2002</v>
+      </c>
+      <c r="B5" s="18">
+        <v>53</v>
+      </c>
+      <c r="C5" s="21">
+        <f t="shared" si="0"/>
+        <v>130965.85217759763</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="18">
+        <v>2003</v>
+      </c>
+      <c r="B6" s="18">
+        <v>47.7</v>
+      </c>
+      <c r="C6" s="21">
+        <f t="shared" si="0"/>
+        <v>117869.26695983787</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="18">
+        <v>2004</v>
+      </c>
+      <c r="B7" s="18">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="C7" s="21">
+        <f t="shared" si="0"/>
+        <v>183105.08766716949</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="18">
+        <v>2005</v>
+      </c>
+      <c r="B8" s="18">
+        <v>62.5</v>
+      </c>
+      <c r="C8" s="21">
+        <f t="shared" si="0"/>
+        <v>154440.86341697833</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="18">
+        <v>2006</v>
+      </c>
+      <c r="B9" s="18">
+        <v>67.3</v>
+      </c>
+      <c r="C9" s="21">
+        <f t="shared" si="0"/>
+        <v>166301.92172740225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="18">
+        <v>2007</v>
+      </c>
+      <c r="B10" s="18">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="C10" s="21">
+        <f t="shared" si="0"/>
+        <v>182610.87690423519</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="18">
+        <v>2008</v>
+      </c>
+      <c r="B11" s="18">
+        <v>85.9</v>
+      </c>
+      <c r="C11" s="21">
+        <f t="shared" si="0"/>
+        <v>212263.52268029505</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="18">
+        <v>2009</v>
+      </c>
+      <c r="B12" s="18">
+        <v>79.2</v>
+      </c>
+      <c r="C12" s="21">
+        <f t="shared" si="0"/>
+        <v>195707.46212199496</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="18">
+        <v>2010</v>
+      </c>
+      <c r="B13" s="18">
+        <v>51.2</v>
+      </c>
+      <c r="C13" s="21">
+        <f t="shared" si="0"/>
+        <v>126517.95531118866</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="18">
+        <v>2011</v>
+      </c>
+      <c r="B14" s="18">
+        <v>88.4</v>
+      </c>
+      <c r="C14" s="21">
+        <f t="shared" si="0"/>
+        <v>218441.15721697418</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="18">
+        <v>2012</v>
+      </c>
+      <c r="B15" s="18">
+        <v>95</v>
+      </c>
+      <c r="C15" s="21">
+        <f t="shared" si="0"/>
+        <v>234750.11239380707</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="18">
+        <v>2013</v>
+      </c>
+      <c r="B16" s="18">
+        <v>80.8</v>
+      </c>
+      <c r="C16" s="21">
+        <f t="shared" si="0"/>
+        <v>199661.14822546957</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="18">
+        <v>2014</v>
+      </c>
+      <c r="B17" s="18">
+        <v>139</v>
+      </c>
+      <c r="C17" s="21">
+        <f t="shared" si="0"/>
+        <v>343476.48023935984</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="18">
+        <v>2015</v>
+      </c>
+      <c r="B18" s="18">
+        <v>116</v>
+      </c>
+      <c r="C18" s="21">
+        <f t="shared" si="0"/>
+        <v>286642.24250191177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="18">
+        <v>2016</v>
+      </c>
+      <c r="B19" s="18">
+        <v>175</v>
+      </c>
+      <c r="C19" s="21">
+        <f t="shared" si="0"/>
+        <v>432434.41756753932</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="18">
+        <v>2017</v>
+      </c>
+      <c r="B20" s="18">
+        <v>189</v>
+      </c>
+      <c r="C20" s="21">
+        <f t="shared" si="0"/>
+        <v>467029.17097294249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="18">
+        <v>2018</v>
+      </c>
+      <c r="B21" s="18">
+        <v>132</v>
+      </c>
+      <c r="C21" s="21">
+        <f t="shared" si="0"/>
+        <v>326179.10353665822</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="15" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="C22" s="21">
+        <f>AVERAGE(C4:C21)</f>
+        <v>229574.62745974478</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="18" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+    <row r="25" spans="1:4">
+      <c r="A25" s="18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+    <row r="26" spans="1:4">
+      <c r="A26" s="18" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="22"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="21">
+        <f>C22</f>
+        <v>229574.62745974478</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="18" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="20">
-        <v>0.02</v>
-      </c>
-      <c r="B23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="19">
-        <f>A2*A23</f>
-        <v>23134.350261538457</v>
-      </c>
-      <c r="B25" t="s">
-        <v>44</v>
+      <c r="C34" s="21">
+        <f>C32*C33</f>
+        <v>206617.1647137703</v>
       </c>
     </row>
   </sheetData>
@@ -2509,351 +2596,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G34"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="21.140625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" style="18" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="18" customWidth="1"/>
-    <col min="4" max="7" width="9.140625" style="18"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="18">
-        <v>2001</v>
-      </c>
-      <c r="B4" s="18">
-        <v>62.3</v>
-      </c>
-      <c r="C4" s="22">
-        <f t="shared" ref="C4:C21" si="0">B4/0.00040468564224</f>
-        <v>153946.65265404401</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="18">
-        <v>2002</v>
-      </c>
-      <c r="B5" s="18">
-        <v>53</v>
-      </c>
-      <c r="C5" s="22">
-        <f t="shared" si="0"/>
-        <v>130965.85217759763</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="18">
-        <v>2003</v>
-      </c>
-      <c r="B6" s="18">
-        <v>47.7</v>
-      </c>
-      <c r="C6" s="22">
-        <f t="shared" si="0"/>
-        <v>117869.26695983787</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="18">
-        <v>2004</v>
-      </c>
-      <c r="B7" s="18">
-        <v>74.099999999999994</v>
-      </c>
-      <c r="C7" s="22">
-        <f t="shared" si="0"/>
-        <v>183105.08766716949</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="18">
-        <v>2005</v>
-      </c>
-      <c r="B8" s="18">
-        <v>62.5</v>
-      </c>
-      <c r="C8" s="22">
-        <f t="shared" si="0"/>
-        <v>154440.86341697833</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="18">
-        <v>2006</v>
-      </c>
-      <c r="B9" s="18">
-        <v>67.3</v>
-      </c>
-      <c r="C9" s="22">
-        <f t="shared" si="0"/>
-        <v>166301.92172740225</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="18">
-        <v>2007</v>
-      </c>
-      <c r="B10" s="18">
-        <v>73.900000000000006</v>
-      </c>
-      <c r="C10" s="22">
-        <f t="shared" si="0"/>
-        <v>182610.87690423519</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="18">
-        <v>2008</v>
-      </c>
-      <c r="B11" s="18">
-        <v>85.9</v>
-      </c>
-      <c r="C11" s="22">
-        <f t="shared" si="0"/>
-        <v>212263.52268029505</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="18">
-        <v>2009</v>
-      </c>
-      <c r="B12" s="18">
-        <v>79.2</v>
-      </c>
-      <c r="C12" s="22">
-        <f t="shared" si="0"/>
-        <v>195707.46212199496</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="18">
-        <v>2010</v>
-      </c>
-      <c r="B13" s="18">
-        <v>51.2</v>
-      </c>
-      <c r="C13" s="22">
-        <f t="shared" si="0"/>
-        <v>126517.95531118866</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="18">
-        <v>2011</v>
-      </c>
-      <c r="B14" s="18">
-        <v>88.4</v>
-      </c>
-      <c r="C14" s="22">
-        <f t="shared" si="0"/>
-        <v>218441.15721697418</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="18">
-        <v>2012</v>
-      </c>
-      <c r="B15" s="18">
-        <v>95</v>
-      </c>
-      <c r="C15" s="22">
-        <f t="shared" si="0"/>
-        <v>234750.11239380707</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="18">
-        <v>2013</v>
-      </c>
-      <c r="B16" s="18">
-        <v>80.8</v>
-      </c>
-      <c r="C16" s="22">
-        <f t="shared" si="0"/>
-        <v>199661.14822546957</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="18">
-        <v>2014</v>
-      </c>
-      <c r="B17" s="18">
-        <v>139</v>
-      </c>
-      <c r="C17" s="22">
-        <f t="shared" si="0"/>
-        <v>343476.48023935984</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="18">
-        <v>2015</v>
-      </c>
-      <c r="B18" s="18">
-        <v>116</v>
-      </c>
-      <c r="C18" s="22">
-        <f t="shared" si="0"/>
-        <v>286642.24250191177</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="18">
-        <v>2016</v>
-      </c>
-      <c r="B19" s="18">
-        <v>175</v>
-      </c>
-      <c r="C19" s="22">
-        <f t="shared" si="0"/>
-        <v>432434.41756753932</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="18">
-        <v>2017</v>
-      </c>
-      <c r="B20" s="18">
-        <v>189</v>
-      </c>
-      <c r="C20" s="22">
-        <f t="shared" si="0"/>
-        <v>467029.17097294249</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="18">
-        <v>2018</v>
-      </c>
-      <c r="B21" s="18">
-        <v>132</v>
-      </c>
-      <c r="C21" s="22">
-        <f t="shared" si="0"/>
-        <v>326179.10353665822</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="22">
-        <f>AVERAGE(C4:C21)</f>
-        <v>229574.62745974478</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="23"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="22">
-        <f>C22</f>
-        <v>229574.62745974478</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="22">
-        <f>C32*C33</f>
-        <v>206617.1647137703</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -2861,21 +2618,21 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="14" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="21">
+      <c r="A3" s="20">
         <v>3896</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2884,10 +2641,10 @@
         <v>87520.098181818175</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2896,21 +2653,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AJ7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:AJ2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="29.265625" customWidth="1"/>
+    <col min="2" max="2" width="10.86328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
@@ -3025,144 +2782,109 @@
         <v>7</v>
       </c>
       <c r="B2" s="19">
-        <f>SetAsides!$A25</f>
-        <v>23134.350261538457</v>
+        <v>0</v>
       </c>
       <c r="C2" s="19">
-        <f>SetAsides!$A25</f>
-        <v>23134.350261538457</v>
+        <v>0</v>
       </c>
       <c r="D2" s="19">
-        <f>SetAsides!$A25</f>
-        <v>23134.350261538457</v>
+        <v>0</v>
       </c>
       <c r="E2" s="19">
-        <f>SetAsides!$A25</f>
-        <v>23134.350261538457</v>
+        <v>0</v>
       </c>
       <c r="F2" s="19">
-        <f>SetAsides!$A25</f>
-        <v>23134.350261538457</v>
+        <v>0</v>
       </c>
       <c r="G2" s="19">
-        <f>SetAsides!$A25</f>
-        <v>23134.350261538457</v>
+        <v>0</v>
       </c>
       <c r="H2" s="19">
-        <f>SetAsides!$A25</f>
-        <v>23134.350261538457</v>
+        <v>0</v>
       </c>
       <c r="I2" s="19">
-        <f>SetAsides!$A25</f>
-        <v>23134.350261538457</v>
+        <v>0</v>
       </c>
       <c r="J2" s="19">
-        <f>SetAsides!$A25</f>
-        <v>23134.350261538457</v>
+        <v>0</v>
       </c>
       <c r="K2" s="19">
-        <f>SetAsides!$A25</f>
-        <v>23134.350261538457</v>
+        <v>0</v>
       </c>
       <c r="L2" s="19">
-        <f>SetAsides!$A25</f>
-        <v>23134.350261538457</v>
+        <v>0</v>
       </c>
       <c r="M2" s="19">
-        <f>SetAsides!$A25</f>
-        <v>23134.350261538457</v>
+        <v>0</v>
       </c>
       <c r="N2" s="19">
-        <f>SetAsides!$A25</f>
-        <v>23134.350261538457</v>
+        <v>0</v>
       </c>
       <c r="O2" s="19">
-        <f>SetAsides!$A25</f>
-        <v>23134.350261538457</v>
+        <v>0</v>
       </c>
       <c r="P2" s="19">
-        <f>SetAsides!$A25</f>
-        <v>23134.350261538457</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="19">
-        <f>SetAsides!$A25</f>
-        <v>23134.350261538457</v>
+        <v>0</v>
       </c>
       <c r="R2" s="19">
-        <f>SetAsides!$A25</f>
-        <v>23134.350261538457</v>
+        <v>0</v>
       </c>
       <c r="S2" s="19">
-        <f>SetAsides!$A25</f>
-        <v>23134.350261538457</v>
+        <v>0</v>
       </c>
       <c r="T2" s="19">
-        <f>SetAsides!$A25</f>
-        <v>23134.350261538457</v>
+        <v>0</v>
       </c>
       <c r="U2" s="19">
-        <f>SetAsides!$A25</f>
-        <v>23134.350261538457</v>
+        <v>0</v>
       </c>
       <c r="V2" s="19">
-        <f>SetAsides!$A25</f>
-        <v>23134.350261538457</v>
+        <v>0</v>
       </c>
       <c r="W2" s="19">
-        <f>SetAsides!$A25</f>
-        <v>23134.350261538457</v>
+        <v>0</v>
       </c>
       <c r="X2" s="19">
-        <f>SetAsides!$A25</f>
-        <v>23134.350261538457</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="19">
-        <f>SetAsides!$A25</f>
-        <v>23134.350261538457</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="19">
-        <f>SetAsides!$A25</f>
-        <v>23134.350261538457</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="19">
-        <f>SetAsides!$A25</f>
-        <v>23134.350261538457</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="19">
-        <f>SetAsides!$A25</f>
-        <v>23134.350261538457</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="19">
-        <f>SetAsides!$A25</f>
-        <v>23134.350261538457</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="19">
-        <f>SetAsides!$A25</f>
-        <v>23134.350261538457</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="19">
-        <f>SetAsides!$A25</f>
-        <v>23134.350261538457</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="19">
-        <f>SetAsides!$A25</f>
-        <v>23134.350261538457</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="19">
-        <f>SetAsides!$A25</f>
-        <v>23134.350261538457</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="19">
-        <f>SetAsides!$A25</f>
-        <v>23134.350261538457</v>
+        <v>0</v>
       </c>
       <c r="AI2" s="19">
-        <f>SetAsides!$A25</f>
-        <v>23134.350261538457</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="19">
-        <f>SetAsides!$A25</f>
-        <v>23134.350261538457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:36">
